--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3143.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3143.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.011256440971063</v>
+        <v>1.066391229629517</v>
       </c>
       <c r="B1">
-        <v>2.120574062857932</v>
+        <v>1.422667264938354</v>
       </c>
       <c r="C1">
-        <v>3.787369294848718</v>
+        <v>2.301104307174683</v>
       </c>
       <c r="D1">
-        <v>4.339151027013576</v>
+        <v>4.561849594116211</v>
       </c>
       <c r="E1">
-        <v>1.707988382737045</v>
+        <v>1.900399565696716</v>
       </c>
     </row>
   </sheetData>
